--- a/va_facility_data_2025-02-20/La Junta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''La%20Junta%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/La Junta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''La%20Junta%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcdaadc57e7fa496ba44780b2884ebc4f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbd7ca933c22a4241acdcb74c2901a991"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbc9b5e5f748349719150b43ccbff586e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb0f1ba943b304809bd95700c4aa11fd1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfd88291b6a1e48f6a28ec968f180d785"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6bc495f54005407b939a4c7561bdd653"/>
   </x:sheets>
 </x:workbook>
 </file>
